--- a/biology/Médecine/Ernest_Huber/Ernest_Huber.xlsx
+++ b/biology/Médecine/Ernest_Huber/Ernest_Huber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Huber, né le 12 janvier 1910 à Haguenau (Alsace-Lorraine) et mort le 12 janvier 2006 à Strasbourg[1], est un illustrateur et graveur français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Huber, né le 12 janvier 1910 à Haguenau (Alsace-Lorraine) et mort le 12 janvier 2006 à Strasbourg, est un illustrateur et graveur français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur d'illustrations anatomiques et graveur d'ex-libris, Ernest Huber est nommé illustrateur et dessinateur à la Faculté de médecine de Strasbourg en 1935. Il illustre ainsi les nombreux ouvrages scientifiques de ses « grands patrons » dont il devient le collaborateur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteur d'illustrations anatomiques et graveur d'ex-libris, Ernest Huber est nommé illustrateur et dessinateur à la Faculté de médecine de Strasbourg en 1935. Il illustre ainsi les nombreux ouvrages scientifiques de ses « grands patrons » dont il devient le collaborateur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée de l'image populaire de Pfaffenhoffen lui a consacré deux expositions, l'une en 1981[4], l'autre en 2010[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée de l'image populaire de Pfaffenhoffen lui a consacré deux expositions, l'une en 1981, l'autre en 2010.
 </t>
         </is>
       </c>
